--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>80.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.82</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>006595</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>广发港股通优质增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.75</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.80</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8564</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>36.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.91</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.17</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1666</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006323</t>
+          <t>006595</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合A</t>
+          <t>广发港股通优质增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006324</t>
+          <t>006768</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合C</t>
+          <t>华安沪港深优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>006323</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>合煦智远嘉选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006768</t>
+          <t>006324</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安沪港深优选混合</t>
+          <t>合煦智远嘉选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1528,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.41</v>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1566,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -1517,13 +1688,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1737,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.41</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1775,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1913,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +2014,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -1897,14 +2030,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="6">
@@ -1913,14 +2046,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="7">
@@ -1929,13 +2062,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.52</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>3.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0883</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -939,7 +1088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1109,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1317,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1563,7 +1712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1847,7 +1996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02357-中航科工.xlsx
+++ b/数据整理/stocks/港股/02357-中航科工.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>3.52</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,280 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +946,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.07</t>
+          <t>73.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0321</t>
+          <t>0.0411</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -726,21 +989,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.07</t>
+          <t>73.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -815,26 +1078,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0883</t>
+          <t>0.0321</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -853,26 +1116,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>73.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -881,6 +1144,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1088,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1258,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1466,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1712,7 +2107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1994,250 +2389,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001764</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发沪港深新机遇股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3663</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006595</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发港股通优质增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0879</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006768</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安沪港深优选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0599</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004266</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010754</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>